--- a/locations/A07.xlsx
+++ b/locations/A07.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://comlineukcom-my.sharepoint.com/personal/jaydip_d_comline_uk_com/Documents/CAPLOCATION/bulk_report_webapp/locations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://comlineukcom-my.sharepoint.com/personal/jaydip_d_comline_uk_com/Documents/CAPLOCATION/Deployment/bulk_report_webapp/locations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D803EE26-91AF-4D05-BBE6-3EA5B8976389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{D803EE26-91AF-4D05-BBE6-3EA5B8976389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C44FDFB2-0897-4C91-843C-368BC9032F85}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,9 +718,6 @@
     <t>07102G</t>
   </si>
   <si>
-    <t>07107G</t>
-  </si>
-  <si>
     <t>07082G</t>
   </si>
   <si>
@@ -802,9 +799,6 @@
     <t>07102F</t>
   </si>
   <si>
-    <t>07107F</t>
-  </si>
-  <si>
     <t>07082F</t>
   </si>
   <si>
@@ -886,9 +880,6 @@
     <t>07102E</t>
   </si>
   <si>
-    <t>07107E</t>
-  </si>
-  <si>
     <t>07082E</t>
   </si>
   <si>
@@ -970,9 +961,6 @@
     <t>07102D</t>
   </si>
   <si>
-    <t>07107D</t>
-  </si>
-  <si>
     <t>07082D</t>
   </si>
   <si>
@@ -1054,9 +1042,6 @@
     <t>07102C</t>
   </si>
   <si>
-    <t>07107C</t>
-  </si>
-  <si>
     <t>07082C</t>
   </si>
   <si>
@@ -1138,9 +1123,6 @@
     <t>07102B</t>
   </si>
   <si>
-    <t>07107B</t>
-  </si>
-  <si>
     <t>07082B</t>
   </si>
   <si>
@@ -1222,9 +1204,6 @@
     <t>07102A</t>
   </si>
   <si>
-    <t>07107A</t>
-  </si>
-  <si>
     <t>07082A</t>
   </si>
   <si>
@@ -1247,6 +1226,27 @@
   </si>
   <si>
     <t>07021A</t>
+  </si>
+  <si>
+    <t>07101A</t>
+  </si>
+  <si>
+    <t>07101B</t>
+  </si>
+  <si>
+    <t>07101C</t>
+  </si>
+  <si>
+    <t>07101D</t>
+  </si>
+  <si>
+    <t>07101E</t>
+  </si>
+  <si>
+    <t>07101F</t>
+  </si>
+  <si>
+    <t>07101G</t>
   </si>
 </sst>
 </file>
@@ -1795,7 +1795,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C33" sqref="C33"/>
+      <selection pane="topRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2993,31 +2993,31 @@
         <v>225</v>
       </c>
       <c r="V18" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="W18" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="X18" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="X18" s="11" t="s">
+      <c r="Y18" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="Y18" s="11" t="s">
+      <c r="Z18" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="Z18" s="11" t="s">
+      <c r="AA18" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="AA18" s="11" t="s">
+      <c r="AB18" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="AB18" s="11" t="s">
+      <c r="AC18" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AC18" s="11" t="s">
+      <c r="AD18" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="AD18" s="11" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
@@ -3058,88 +3058,88 @@
         <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="G20" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="J20" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="K20" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="L20" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="M20" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="N20" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="O20" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="P20" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="Q20" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="Q20" s="11" t="s">
+      <c r="R20" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="R20" s="11" t="s">
+      <c r="S20" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="S20" s="11" t="s">
+      <c r="T20" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="U20" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="U20" s="11" t="s">
+      <c r="V20" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="W20" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="X20" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="Y20" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="X20" s="11" t="s">
+      <c r="Z20" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="Y20" s="11" t="s">
+      <c r="AA20" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="Z20" s="11" t="s">
+      <c r="AB20" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="AA20" s="11" t="s">
+      <c r="AC20" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="AB20" s="11" t="s">
+      <c r="AD20" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="AC20" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="AD20" s="11" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
@@ -3180,88 +3180,88 @@
         <v>60</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="F22" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="I22" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="J22" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="K22" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="L22" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="M22" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="N22" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="O22" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="P22" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="O22" s="11" t="s">
+      <c r="Q22" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="R22" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="S22" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="R22" s="11" t="s">
+      <c r="T22" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="S22" s="11" t="s">
+      <c r="U22" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="T22" s="11" t="s">
+      <c r="V22" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="W22" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="U22" s="11" t="s">
+      <c r="X22" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="V22" s="11" t="s">
+      <c r="Y22" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="W22" s="11" t="s">
+      <c r="Z22" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="X22" s="11" t="s">
+      <c r="AA22" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="Y22" s="11" t="s">
+      <c r="AB22" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="Z22" s="11" t="s">
+      <c r="AC22" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="AA22" s="11" t="s">
+      <c r="AD22" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="AB22" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="AC22" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="AD22" s="11" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.35">
@@ -3302,88 +3302,88 @@
         <v>89</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="G24" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="I24" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="J24" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="K24" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="L24" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="M24" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="N24" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="O24" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="M24" s="11" t="s">
+      <c r="P24" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="Q24" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="R24" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="S24" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="Q24" s="11" t="s">
+      <c r="T24" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="U24" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="S24" s="11" t="s">
+      <c r="V24" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="W24" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="T24" s="11" t="s">
+      <c r="X24" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="U24" s="11" t="s">
+      <c r="Y24" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="V24" s="11" t="s">
+      <c r="Z24" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="W24" s="11" t="s">
+      <c r="AA24" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="X24" s="11" t="s">
+      <c r="AB24" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="Y24" s="11" t="s">
+      <c r="AC24" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="Z24" s="11" t="s">
+      <c r="AD24" s="11" t="s">
         <v>314</v>
-      </c>
-      <c r="AA24" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="AB24" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="AC24" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="AD24" s="11" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.35">
@@ -3424,88 +3424,88 @@
         <v>118</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="H26" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="I26" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="J26" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="K26" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="L26" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="M26" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="N26" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="O26" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="P26" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="Q26" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="R26" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="O26" s="11" t="s">
+      <c r="S26" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="T26" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="Q26" s="11" t="s">
+      <c r="U26" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="R26" s="11" t="s">
+      <c r="V26" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="W26" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="S26" s="11" t="s">
+      <c r="X26" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="T26" s="11" t="s">
+      <c r="Y26" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="U26" s="11" t="s">
+      <c r="Z26" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="V26" s="11" t="s">
+      <c r="AA26" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="W26" s="11" t="s">
+      <c r="AB26" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="X26" s="11" t="s">
+      <c r="AC26" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="Y26" s="11" t="s">
+      <c r="AD26" s="11" t="s">
         <v>341</v>
-      </c>
-      <c r="Z26" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA26" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="AB26" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC26" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="AD26" s="11" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.35">
@@ -3546,88 +3546,88 @@
         <v>147</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="I28" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="J28" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="K28" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="L28" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="M28" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="N28" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="O28" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="P28" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="Q28" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="R28" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="N28" s="11" t="s">
+      <c r="S28" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="O28" s="11" t="s">
+      <c r="T28" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="U28" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="Q28" s="11" t="s">
+      <c r="V28" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="W28" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="R28" s="11" t="s">
+      <c r="X28" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="S28" s="11" t="s">
+      <c r="Y28" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="T28" s="11" t="s">
+      <c r="Z28" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="U28" s="11" t="s">
+      <c r="AA28" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="V28" s="11" t="s">
+      <c r="AB28" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="W28" s="11" t="s">
+      <c r="AC28" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="X28" s="11" t="s">
+      <c r="AD28" s="11" t="s">
         <v>368</v>
-      </c>
-      <c r="Y28" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z28" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="AA28" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="AB28" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="AC28" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="AD28" s="11" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.35">
@@ -3668,88 +3668,88 @@
         <v>176</v>
       </c>
       <c r="C30" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="I30" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="J30" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="K30" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="L30" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="M30" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="N30" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="O30" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="J30" s="21" t="s">
+      <c r="P30" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="K30" s="21" t="s">
+      <c r="Q30" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="L30" s="21" t="s">
+      <c r="R30" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="M30" s="21" t="s">
+      <c r="S30" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="N30" s="21" t="s">
+      <c r="T30" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="O30" s="21" t="s">
+      <c r="U30" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="P30" s="21" t="s">
+      <c r="V30" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="W30" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="Q30" s="21" t="s">
+      <c r="X30" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="R30" s="21" t="s">
+      <c r="Y30" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="S30" s="21" t="s">
+      <c r="Z30" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="T30" s="21" t="s">
+      <c r="AA30" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="U30" s="21" t="s">
+      <c r="AB30" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="V30" s="21" t="s">
+      <c r="AC30" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="W30" s="21" t="s">
+      <c r="AD30" s="20" t="s">
         <v>395</v>
-      </c>
-      <c r="X30" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="Y30" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="Z30" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="AA30" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB30" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="AC30" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="AD30" s="20" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
